--- a/output/医院科室表.xlsx
+++ b/output/医院科室表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>科室名</t>
   </si>
@@ -22,10 +22,13 @@
     <t>二维码</t>
   </si>
   <si>
-    <t>科室1</t>
+    <t>老年病科</t>
   </si>
   <si>
-    <t>科室2</t>
+    <t>综合内科</t>
+  </si>
+  <si>
+    <t>门诊针灸科</t>
   </si>
 </sst>
 </file>
@@ -82,10 +85,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -103,7 +106,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="0"/>
-          <a:ext cx="1314450" cy="1314450"/>
+          <a:ext cx="2000250" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -120,10 +123,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -141,7 +144,45 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="190500"/>
-          <a:ext cx="1314450" cy="1314450"/>
+          <a:ext cx="2000250" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="QRCode.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="2000250" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -438,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,6 +503,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
